--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2671675.061832508</v>
+        <v>2665953.449864621</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9307488.118789023</v>
+        <v>9307488.118789021</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>15.14483238681411</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.1587824266624</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>160.4055963302111</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>207.5912001051813</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>127.91626446746</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>63.01667685547804</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>185.3997192893057</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>14.92708396620965</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>248.3420482190482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>110.2526535426573</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206842</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292596</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.14501617230224</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881778</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>88.22672784917116</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>52.07852635745752</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873217</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.430825802817566</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>171.1100609073551</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>15.07437110675823</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.76221218545333</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.2484904088818</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>137.2614579387389</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>97.07542547719713</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>113.2541744914</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>114.4746605491549</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6471218195792</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>263.7707305829771</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247882</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>95.72494460409808</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247869</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>134.441538584933</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>87.42757618688601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.02146927219734</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>121.4542291304343</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>83.16419637350498</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>69.24079231209588</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>69.24079231209588</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1851.286880367297</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1727.894170845416</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.5384547146243</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146243</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>409.5384547146243</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.5384547146243</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1533.27522618254</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1533.27522618254</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1533.27522618254</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1533.27522618254</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4664,25 +4664,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.5323736931987</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C7" t="n">
-        <v>117.5961907652918</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>117.5961907652918</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>117.5961907652918</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>117.5961907652918</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>117.5961907652918</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.5323736931987</v>
+        <v>540.8565404798628</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1686.741202187451</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>493.9301532635121</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>82.94424847390451</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>69.02084441249541</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>69.02084441249541</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1686.741202187451</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>53.94298182036445</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>616.7626674966796</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>616.7626674966796</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>327.5890571512475</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>327.5890571512475</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512475</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>811.5584875547752</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1676.07730320813</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2209.609207880054</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>3189.3614801067</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>3692.333950986037</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390117</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>623.0432015923077</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C13" t="n">
-        <v>623.0432015923077</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D13" t="n">
-        <v>472.9265621799719</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E13" t="n">
-        <v>472.9265621799719</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0366146820616</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G13" t="n">
-        <v>158.3337780567805</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>158.3337780567805</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442063</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.890966501056</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>1253.473796464095</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>1025.484245566078</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>804.6916664225474</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5263,7 +5263,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
@@ -5275,34 +5275,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846825</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844494</v>
+        <v>2120.457898518749</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903276</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
         <v>4667.761053946815</v>
@@ -5314,16 +5314,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>500.2948715744233</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C16" t="n">
-        <v>500.2948715744233</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D16" t="n">
-        <v>500.2948715744233</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E16" t="n">
-        <v>352.3817779920302</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>352.3817779920302</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G16" t="n">
-        <v>184.6789413667491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H16" t="n">
-        <v>184.6789413667491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1903.738894026463</v>
       </c>
       <c r="U16" t="n">
-        <v>1674.827124689058</v>
+        <v>1903.738894026463</v>
       </c>
       <c r="V16" t="n">
-        <v>1420.142636483171</v>
+        <v>1649.054405820576</v>
       </c>
       <c r="W16" t="n">
-        <v>1130.72546644621</v>
+        <v>1359.637235783616</v>
       </c>
       <c r="X16" t="n">
-        <v>902.7359155481931</v>
+        <v>1131.647684885598</v>
       </c>
       <c r="Y16" t="n">
-        <v>681.943336404663</v>
+        <v>910.8551057420682</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3530.568798281487</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P17" t="n">
-        <v>4243.923885728434</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.5676213586405</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C19" t="n">
-        <v>392.5676213586405</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X19" t="n">
-        <v>619.8559841413803</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.0634049978502</v>
+        <v>728.5338801960603</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839393</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277724</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1905.50671493659</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2439.038619608515</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>2985.817436667297</v>
+        <v>3362.809616117417</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996752</v>
+        <v>3865.782086996754</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
         <v>487.9678785494859</v>
@@ -5828,31 +5828,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>508.0400813400981</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C22" t="n">
-        <v>339.1038984121913</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D22" t="n">
-        <v>339.1038984121913</v>
+        <v>110.7876719299684</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121913</v>
+        <v>110.7876719299684</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.371534604246</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1743.685650431072</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1743.685650431072</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1454.582783556716</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1199.898295350829</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W22" t="n">
-        <v>910.481125313868</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>910.481125313868</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y22" t="n">
-        <v>689.6885461703379</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>416.360692471045</v>
       </c>
       <c r="K23" t="n">
-        <v>848.0509105096021</v>
+        <v>750.1800661608913</v>
       </c>
       <c r="L23" t="n">
-        <v>1299.085123758011</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M23" t="n">
-        <v>1832.617028429936</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N23" t="n">
-        <v>2812.369300656582</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O23" t="n">
-        <v>3692.333950986037</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>974.4454116758762</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C25" t="n">
-        <v>805.5092287479694</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D25" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E25" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1100.959038351514</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1100.959038351514</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>974.4454116758762</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6229,19 +6229,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2883.993034926781</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107236</v>
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3478.631630764824</v>
+        <v>529.0120128405554</v>
       </c>
       <c r="C28" t="n">
-        <v>3478.631630764824</v>
+        <v>529.0120128405554</v>
       </c>
       <c r="D28" t="n">
-        <v>3328.514991352489</v>
+        <v>529.0120128405554</v>
       </c>
       <c r="E28" t="n">
-        <v>3328.514991352489</v>
+        <v>381.0989192581623</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.514991352489</v>
+        <v>234.2089717602519</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004074</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>4398.479395673572</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U28" t="n">
-        <v>4398.479395673572</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V28" t="n">
-        <v>4398.479395673572</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W28" t="n">
-        <v>4109.062225636611</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="X28" t="n">
-        <v>3881.072674738594</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="Y28" t="n">
-        <v>3660.280095595064</v>
+        <v>710.6604776707951</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6469,46 +6469,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1296.118160724478</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M29" t="n">
-        <v>2274.668463554307</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.420735780953</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3350.720269155573</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>3181.784086227666</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>3031.66744681533</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>3031.66744681533</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>3031.66744681533</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>3031.66744681533</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>4586.365838246546</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>4297.26297137219</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>4042.578483166303</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>3753.161313129342</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>3753.161313129342</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>3532.368733985812</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>360.1279170711156</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1014.851249206415</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1465.885462454824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>1999.417367126749</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279158</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3796.153667990894</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C34" t="n">
-        <v>3627.217485062987</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D34" t="n">
-        <v>3477.100845650651</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E34" t="n">
-        <v>3329.187752068258</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4778.051722419721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4499.620286238328</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>4244.935798032441</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>4244.935798032441</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>4016.946247134424</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>3796.153667990894</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,67 +6922,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074201</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427198</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1390.197710791129</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M35" t="n">
-        <v>2368.748013620958</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>2915.526830679741</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367487</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.08900508636</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.154595425109</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279156</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358042</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.517670152509</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387555</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>676.4156786811474</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,16 +7098,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7122,25 +7122,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689059</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258585</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1186.625427861638</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1186.625427861638</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>897.2082578246775</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>897.2082578246775</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.4156786811474</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089262</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074201</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427198</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1390.197710791129</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>1923.729615463054</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N38" t="n">
-        <v>2903.481887689701</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O38" t="n">
-        <v>3783.446538019156</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.592772497321</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216194</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549427</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494872</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763722</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089903</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468579</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7256,16 +7256,16 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,31 +7274,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142069</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635549</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487876</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282343</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517389</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>435.795761648654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>435.795761648654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1355.643526557402</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1355.643526557402</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1066.226356520441</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>838.2368056224238</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>617.4442264788937</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7402,40 +7402,40 @@
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176198</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770975</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M41" t="n">
-        <v>2628.734306600804</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N41" t="n">
-        <v>3175.513123659586</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660289</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C43" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7572,16 +7572,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799874</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593987</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>1102.47881257693</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>874.4892616789128</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y43" t="n">
-        <v>653.6966825353827</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7654,46 +7654,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>245.6776738607302</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C46" t="n">
-        <v>245.6776738607302</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7839,19 +7839,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1420.209926975365</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1165.525438769478</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>876.1082687325173</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>648.1187178345</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>427.3261386909699</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028825</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,25 +8692,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>26.15484791631917</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476862</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792323</v>
       </c>
       <c r="M14" t="n">
-        <v>39.4832155777259</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476862</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.3991441460092</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>351.4175304294034</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>358.284991392107</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>133.2530576400254</v>
       </c>
       <c r="K23" t="n">
-        <v>63.01588120402295</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>315.167921710931</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>229.1155640189929</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,10 +10126,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>76.45227440777347</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>64.28566532692309</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10840,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>17.4508013165086</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.428190898877801e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>79.70465870844987</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-1.303845920119784e-12</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>34.20740423753588</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>144.7550149143143</v>
       </c>
       <c r="I16" t="n">
-        <v>8.125692560666934</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>167.4704229187117</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.4011543791197</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>54.59959448168203</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>130.346676916173</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.16994048459399</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.33616294321298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>28.76435032028931</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>122.4735237989721</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>31.50084042292082</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>10.56471638603369</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>22.4411076226358</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>52.89052841411427</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>45.39044159700433</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>199.095422149705</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.2253518264305</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>164.7576090751786</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791665.0628191272</v>
+        <v>791665.0628191275</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791665.0628191271</v>
+        <v>791665.0628191272</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791665.0628191272</v>
+        <v>791665.0628191271</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791665.0628191271</v>
+        <v>791665.0628191272</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791665.0628191272</v>
+        <v>791665.0628191271</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448196</v>
@@ -26325,37 +26325,37 @@
         <v>615476.7696748236</v>
       </c>
       <c r="F2" t="n">
+        <v>615476.7696748237</v>
+      </c>
+      <c r="G2" t="n">
         <v>615476.769674824</v>
       </c>
-      <c r="G2" t="n">
-        <v>615476.7696748239</v>
-      </c>
       <c r="H2" t="n">
+        <v>615476.769674824</v>
+      </c>
+      <c r="I2" t="n">
+        <v>615476.7696748233</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615476.769674824</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615476.7696748235</v>
+      </c>
+      <c r="L2" t="n">
+        <v>615476.769674824</v>
+      </c>
+      <c r="M2" t="n">
         <v>615476.7696748241</v>
       </c>
-      <c r="I2" t="n">
-        <v>615476.769674824</v>
-      </c>
-      <c r="J2" t="n">
-        <v>615476.7696748235</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615476.7696748239</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615476.7696748237</v>
-      </c>
       <c r="N2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748242</v>
       </c>
       <c r="O2" t="n">
         <v>615476.7696748241</v>
       </c>
       <c r="P2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748237</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.314838945</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26426,40 +26426,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.49231918996</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918997</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918995</v>
       </c>
-      <c r="F4" t="n">
+      <c r="L4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18148.4923191899</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.4923191899</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918994</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26499,19 +26499,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371367</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-219868.2724902621</v>
       </c>
       <c r="C6" t="n">
-        <v>370099.6067242825</v>
+        <v>370099.6067242823</v>
       </c>
       <c r="D6" t="n">
         <v>370099.6067242823</v>
       </c>
       <c r="E6" t="n">
-        <v>-226432.6548914864</v>
+        <v>-227104.6097937444</v>
       </c>
       <c r="F6" t="n">
-        <v>500944.7591019204</v>
+        <v>500272.8041996622</v>
       </c>
       <c r="G6" t="n">
-        <v>500944.7591019203</v>
+        <v>500272.8041996624</v>
       </c>
       <c r="H6" t="n">
-        <v>500944.7591019205</v>
+        <v>500272.8041996624</v>
       </c>
       <c r="I6" t="n">
-        <v>500944.7591019204</v>
+        <v>500272.8041996617</v>
       </c>
       <c r="J6" t="n">
-        <v>324521.5399093269</v>
+        <v>323849.5850070696</v>
       </c>
       <c r="K6" t="n">
-        <v>500944.7591019203</v>
+        <v>500272.804199662</v>
       </c>
       <c r="L6" t="n">
-        <v>500944.75910192</v>
+        <v>500272.8041996624</v>
       </c>
       <c r="M6" t="n">
-        <v>371302.4442629751</v>
+        <v>370630.4893607176</v>
       </c>
       <c r="N6" t="n">
-        <v>500944.7591019202</v>
+        <v>500272.8041996626</v>
       </c>
       <c r="O6" t="n">
-        <v>500944.7591019205</v>
+        <v>500272.8041996625</v>
       </c>
       <c r="P6" t="n">
-        <v>500944.7591019204</v>
+        <v>500272.8041996622</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26770,13 +26770,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26989,10 +26989,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.7864838580471</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>264.0791562293912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>6.841224768416765</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>78.69067413679647</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>221.324704249953</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>93.15421198631711</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27824,10 +27824,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>33.18493406278913</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>137.0042322786516</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>137.8958904370054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>101.8928854073616</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-8.314217670929151e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.946887095982675e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28502,7 +28502,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.457175535009204e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34783,13 +34783,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>363.3461344717196</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359052</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502552</v>
       </c>
       <c r="M14" t="n">
-        <v>578.4043314079527</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359052</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.1934489497287</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>807.0076448217355</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>910.5868268050183</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>324.0400586087379</v>
       </c>
       <c r="K23" t="n">
-        <v>400.2071677594234</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200624</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>713.9299079303029</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>684.705678411325</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>267.239275376486</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923324</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230595</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>572.3386662151426</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248959</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509648</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>416.2127875358807</v>
+        <v>568.8760771471024</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427828</v>
+        <v>753.4190306414129</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230595</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>587.7576595966693</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2665953.449864621</v>
+        <v>2669358.940989071</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9307488.118789021</v>
+        <v>9307488.118789023</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>15.14483238681411</v>
+        <v>115.4314953055859</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.596015618368514</v>
       </c>
       <c r="U4" t="n">
-        <v>207.5912001051813</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>60.46179076613115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>270.777345985076</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>195.7571515107719</v>
       </c>
       <c r="Y7" t="n">
-        <v>185.3997192893057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191320715</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.92708396620965</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095418</v>
+        <v>59.72683757586903</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206842</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292596</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>81.72898226868554</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>173.626889274475</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881778</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>52.07852635745752</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>37.94510558336358</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873217</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4881144206586</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>171.1100609073551</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>15.07437110675823</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>14.20188851094981</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>241.1089374470161</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>137.2614579387389</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610036</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>114.4746605491549</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.66925886831017</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>18.26879610203984</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>52.74455946606852</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>53.82704427691622</v>
       </c>
     </row>
     <row r="38">
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>60.52730423200327</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.441538584933</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>82.39501537729602</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.02146927219734</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.1126181035243</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="C2" t="n">
-        <v>494.1501011631125</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="D2" t="n">
-        <v>494.1501011631125</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="E2" t="n">
-        <v>494.1501011631125</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="F2" t="n">
-        <v>83.16419637350498</v>
+        <v>588.5042599278199</v>
       </c>
       <c r="G2" t="n">
-        <v>69.24079231209588</v>
+        <v>170.5404518260068</v>
       </c>
       <c r="H2" t="n">
-        <v>69.24079231209588</v>
+        <v>170.5404518260068</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="U4" t="n">
-        <v>274.7355609638946</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>135.884402556362</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572651</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2080756496231</v>
+        <v>348.746022900668</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>348.746022900668</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>530.3944877309077</v>
       </c>
       <c r="Y7" t="n">
-        <v>540.8565404798628</v>
+        <v>530.3944877309077</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1606.946621408918</v>
+        <v>808.0839286340188</v>
       </c>
       <c r="C8" t="n">
-        <v>1237.984104468507</v>
+        <v>439.1214116936071</v>
       </c>
       <c r="D8" t="n">
-        <v>879.7184058617563</v>
+        <v>80.85571308685655</v>
       </c>
       <c r="E8" t="n">
-        <v>493.9301532635121</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>82.94424847390451</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>69.02084441249541</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>69.02084441249541</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2311.057514205146</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>1958.288858935032</v>
       </c>
       <c r="X8" t="n">
-        <v>1993.54646147304</v>
+        <v>1584.823100673952</v>
       </c>
       <c r="Y8" t="n">
-        <v>1993.54646147304</v>
+        <v>1194.683768698141</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050021</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>667.7988452409106</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>498.8626623130037</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>348.746022900668</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232733</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839444</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839444</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839444</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839444</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839444</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786342</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5275,34 +5275,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846825</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518749</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906986</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353932</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
         <v>4667.761053946815</v>
@@ -5314,16 +5314,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>729.2066409118285</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C16" t="n">
-        <v>560.2704579839216</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736755</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1903.738894026463</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1903.738894026463</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1649.054405820576</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>1359.637235783616</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X16" t="n">
-        <v>1131.647684885598</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y16" t="n">
-        <v>910.8551057420682</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551633</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>728.5338801960603</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C19" t="n">
-        <v>559.5976972681534</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D19" t="n">
-        <v>409.4810578558177</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570251</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>728.5338801960603</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>728.5338801960603</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551634</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5749,7 +5749,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5758,40 +5758,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N20" t="n">
-        <v>3362.809616117417</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996754</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353932</v>
+        <v>4243.923885728434</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.03465586292</v>
+        <v>4702.402088237422</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9043113423041</v>
+        <v>278.8425593065537</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9043113423041</v>
+        <v>109.9063763786467</v>
       </c>
       <c r="D22" t="n">
-        <v>110.7876719299684</v>
+        <v>109.9063763786467</v>
       </c>
       <c r="E22" t="n">
-        <v>110.7876719299684</v>
+        <v>109.9063763786467</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839444</v>
+        <v>109.9063763786467</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838516</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858343</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423041</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>416.360692471045</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>750.1800661608913</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1614.698881814246</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2593.249184644074</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6016,25 +6016,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839444</v>
+        <v>823.6560115477723</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839444</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839444</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1333.865760728263</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>1044.448590691302</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>1044.448590691302</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786342</v>
+        <v>823.6560115477723</v>
       </c>
     </row>
     <row r="26">
@@ -6205,52 +6205,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>529.0120128405554</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C28" t="n">
-        <v>529.0120128405554</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0120128405554</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>381.0989192581623</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2089717602519</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.657581931529</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.870226851286</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>931.4530568143252</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>931.4530568143252</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>710.6604776707951</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6469,46 +6469,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364129</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,16 +6560,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6727,25 +6727,25 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.9043113423046</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C34" t="n">
-        <v>260.9043113423046</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D34" t="n">
-        <v>260.9043113423046</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>295.0555540245452</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>148.838367242403</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="35">
@@ -6919,55 +6919,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216375</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="38">
@@ -7153,25 +7153,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7180,25 +7180,25 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2047.844055175504</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3027.596327402151</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3907.560977731605</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1391.921818115147</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1137.23732990926</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>1137.23732990926</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>909.2477790112422</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>688.4551998677121</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,7 +7396,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
@@ -7408,34 +7408,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1364.144379432265</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M41" t="n">
-        <v>1897.67628410419</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>263.2638710736754</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C43" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X43" t="n">
-        <v>619.8559841413803</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y43" t="n">
-        <v>399.0634049978502</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="44">
@@ -7627,73 +7627,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390115</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>300.048425655595</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C46" t="n">
         <v>242.4509819463048</v>
@@ -7794,16 +7794,16 @@
         <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7851,7 +7851,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>481.6968904858347</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783507</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747067</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476862</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792323</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476862</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>358.284991392107</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>16.80057335908688</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>133.2530576400254</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277305</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277313</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,16 +10837,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>170.1140909277305</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>67.53663776704209</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>297.8289162490807</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>85.51783882994229</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>16.14213605696685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143143</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>167.4704229187117</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>248.5778927532274</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9.127358597553723</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>54.59959448168203</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>130.346676916173</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>151.8239197480784</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>11.0287058768119</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>28.76435032028931</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>182.1679443159944</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>105.0742887270142</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.9153944837846</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.1651665445293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>43.60786094376957</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>164.7576090751786</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>225.6845339736096</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.39044159700433</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>84.85180572133181</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.2253518264305</v>
+        <v>148.978024996588</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791665.0628191275</v>
+        <v>791665.0628191272</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791665.0628191271</v>
+        <v>791665.0628191272</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791665.0628191271</v>
+        <v>791665.0628191272</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="F2" t="n">
-        <v>615476.7696748237</v>
+        <v>615476.769674824</v>
       </c>
       <c r="G2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748242</v>
       </c>
       <c r="H2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="I2" t="n">
-        <v>615476.7696748233</v>
+        <v>615476.7696748242</v>
       </c>
       <c r="J2" t="n">
         <v>615476.769674824</v>
       </c>
       <c r="K2" t="n">
-        <v>615476.7696748235</v>
+        <v>615476.7696748241</v>
       </c>
       <c r="L2" t="n">
         <v>615476.769674824</v>
       </c>
       <c r="M2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="N2" t="n">
         <v>615476.7696748242</v>
       </c>
       <c r="O2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.769674824</v>
       </c>
       <c r="P2" t="n">
         <v>615476.7696748237</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934063</v>
       </c>
       <c r="F3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389446</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.6868571279</v>
-      </c>
-      <c r="C4" t="n">
-        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918997</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918989</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918993</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371367</v>
-      </c>
-      <c r="G5" t="n">
-        <v>96383.51825371367</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371367</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371367</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="O5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219868.2724902621</v>
+        <v>-219868.2724902622</v>
       </c>
       <c r="C6" t="n">
-        <v>370099.6067242823</v>
+        <v>370099.6067242818</v>
       </c>
       <c r="D6" t="n">
-        <v>370099.6067242823</v>
+        <v>370099.6067242825</v>
       </c>
       <c r="E6" t="n">
-        <v>-227104.6097937444</v>
+        <v>-226499.8503817118</v>
       </c>
       <c r="F6" t="n">
-        <v>500272.8041996622</v>
+        <v>500877.5636116946</v>
       </c>
       <c r="G6" t="n">
-        <v>500272.8041996624</v>
+        <v>500877.5636116948</v>
       </c>
       <c r="H6" t="n">
-        <v>500272.8041996624</v>
+        <v>500877.5636116945</v>
       </c>
       <c r="I6" t="n">
-        <v>500272.8041996617</v>
+        <v>500877.5636116948</v>
       </c>
       <c r="J6" t="n">
-        <v>323849.5850070696</v>
+        <v>324454.3444191015</v>
       </c>
       <c r="K6" t="n">
-        <v>500272.804199662</v>
+        <v>500877.5636116947</v>
       </c>
       <c r="L6" t="n">
-        <v>500272.8041996624</v>
+        <v>500877.5636116946</v>
       </c>
       <c r="M6" t="n">
-        <v>370630.4893607176</v>
+        <v>371235.2487727497</v>
       </c>
       <c r="N6" t="n">
-        <v>500272.8041996626</v>
+        <v>500877.5636116948</v>
       </c>
       <c r="O6" t="n">
-        <v>500272.8041996625</v>
+        <v>500877.5636116946</v>
       </c>
       <c r="P6" t="n">
-        <v>500272.8041996622</v>
+        <v>500877.5636116943</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503741</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503751</v>
+        <v>520.2256578503741</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503741</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>136.7864838580471</v>
+        <v>36.49982093927534</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>218.4390898397158</v>
       </c>
       <c r="U4" t="n">
-        <v>78.69067413679647</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>321.4685793061306</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>98.95375469339302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>29.95250387826525</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.18493406278913</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809411</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>137.0042322786516</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609831</v>
+        <v>120.1051426060683</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.314217670929151e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.946887095982675e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28502,7 +28502,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6.457175535009204e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770699</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262111</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359052</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502552</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359052</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>910.5868268050183</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>76.41377190131166</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>324.0400586087379</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200624</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200632</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814159</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37557,16 +37557,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>568.8760771471024</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707616</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>753.4190306414129</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
